--- a/development/database/excel/system.xlsx
+++ b/development/database/excel/system.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -96,7 +96,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>["1_在线奖励", "2_签到", "3_等级冲刺", "4_战力冲刺", "5_手机绑定", "6_激活码", "7_实名认证"]</t>
+    <t>["1_在线奖励", "2_签到", "3_等级冲刺", "4_战力冲刺", "5_手机绑定", "6_激活码"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
